--- a/Datasheets/DataForm_UAS_BodyCondition_2022_TestFlights.xlsx
+++ b/Datasheets/DataForm_UAS_BodyCondition_2022_TestFlights.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$19:$19</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$20:$20</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>Flight #:</t>
   </si>
@@ -267,6 +267,12 @@
       <t>negative.</t>
     </r>
   </si>
+  <si>
+    <t>Takeoff Latitude:</t>
+  </si>
+  <si>
+    <t>Takeoff Longitude:</t>
+  </si>
 </sst>
 </file>
 
@@ -770,14 +776,14 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1181,7 +1187,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1404,362 +1410,360 @@
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B13" s="11"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="20"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
       <c r="G13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="20"/>
+        <v>38</v>
+      </c>
+      <c r="H13" s="31"/>
       <c r="I13" s="20"/>
       <c r="J13" s="21"/>
-      <c r="K13" s="19"/>
-    </row>
-    <row r="14" spans="1:11" s="4" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F14" s="14"/>
-      <c r="G14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="20"/>
+      <c r="G14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="14"/>
+      <c r="G15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-    </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-    </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+    </row>
+    <row r="17" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="7"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+    </row>
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-    </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" s="37" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+    </row>
+    <row r="19" spans="1:11" s="3" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" s="37" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B20" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C20" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="55" t="s">
+      <c r="D20" s="57"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="52" t="s">
+      <c r="G20" s="56"/>
+      <c r="H20" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="54"/>
-    </row>
-    <row r="20" spans="1:11" s="25" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-    </row>
-    <row r="21" spans="1:11" s="25" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="54"/>
+    </row>
+    <row r="21" spans="1:11" s="25" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="28"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
     </row>
     <row r="22" spans="1:11" s="25" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="28"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
     </row>
     <row r="23" spans="1:11" s="25" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="28"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
     </row>
     <row r="24" spans="1:11" s="25" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="28"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
     </row>
     <row r="25" spans="1:11" s="25" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="28"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
     </row>
     <row r="26" spans="1:11" s="25" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="28"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
     </row>
     <row r="27" spans="1:11" s="25" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="28"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
     </row>
     <row r="28" spans="1:11" s="25" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="28"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
     </row>
     <row r="29" spans="1:11" s="25" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="28"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
     </row>
     <row r="30" spans="1:11" s="25" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="28"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
     </row>
     <row r="31" spans="1:11" s="25" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
     </row>
     <row r="32" spans="1:11" s="25" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="28"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
     </row>
     <row r="33" spans="1:11" s="25" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="28"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:K30"/>
+  <mergeCells count="42">
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:K33"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="H32:K32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.3125" top="0.60416666666666696" bottom="0.57291666666666696" header="0.33" footer="0.16"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Datasheets/DataForm_UAS_BodyCondition_2022_TestFlights.xlsx
+++ b/Datasheets/DataForm_UAS_BodyCondition_2022_TestFlights.xlsx
@@ -220,6 +220,12 @@
     <t>Drone-GPS Offset (sec):</t>
   </si>
   <si>
+    <t>Takeoff Latitude:</t>
+  </si>
+  <si>
+    <t>Takeoff Longitude:</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">          ^The # of seconds that should be </t>
     </r>
@@ -238,7 +244,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> to the DRONE time to match the GPS time. If DRONE time &lt; GPS time, this should be </t>
+      <t xml:space="preserve"> to the EXIF time to match the GPS time. If EXIF time &lt; GPS time, this should be </t>
     </r>
     <r>
       <rPr>
@@ -255,7 +261,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> if DRONE time &gt; GPS time, this should be </t>
+      <t xml:space="preserve"> if EXIF time &gt; GPS time, this should be </t>
     </r>
     <r>
       <rPr>
@@ -266,12 +272,6 @@
       </rPr>
       <t>negative.</t>
     </r>
-  </si>
-  <si>
-    <t>Takeoff Latitude:</t>
-  </si>
-  <si>
-    <t>Takeoff Longitude:</t>
   </si>
 </sst>
 </file>
@@ -776,14 +776,14 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1187,7 +1187,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="8" spans="1:11" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -1410,14 +1410,14 @@
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="31"/>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
       <c r="G13" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="31"/>
       <c r="I13" s="20"/>
@@ -1533,210 +1533,207 @@
       <c r="C21" s="58"/>
       <c r="D21" s="59"/>
       <c r="E21" s="60"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
     </row>
     <row r="22" spans="1:11" s="25" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="28"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
     </row>
     <row r="23" spans="1:11" s="25" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B23" s="28"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
     </row>
     <row r="24" spans="1:11" s="25" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="28"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
     </row>
     <row r="25" spans="1:11" s="25" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="28"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
     </row>
     <row r="26" spans="1:11" s="25" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="28"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
     </row>
     <row r="27" spans="1:11" s="25" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="28"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
     </row>
     <row r="28" spans="1:11" s="25" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="28"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
     </row>
     <row r="29" spans="1:11" s="25" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="28"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
     </row>
     <row r="30" spans="1:11" s="25" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="28"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
     </row>
     <row r="31" spans="1:11" s="25" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="28"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
     </row>
     <row r="32" spans="1:11" s="25" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="28"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
     </row>
     <row r="33" spans="1:11" s="25" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B33" s="28"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="C28:E28"/>
@@ -1752,18 +1749,21 @@
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:K32"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.3125" top="0.60416666666666696" bottom="0.57291666666666696" header="0.33" footer="0.16"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
